--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55666A81-B6CE-4E6E-BEFA-524CB554046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5AA598-C23B-44D4-852C-33A7030198B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -29,13 +29,199 @@
   </si>
   <si>
     <t>Link ID</t>
+  </si>
+  <si>
+    <t>CRS_Reg_001</t>
+  </si>
+  <si>
+    <t>CRS_Reg_002</t>
+  </si>
+  <si>
+    <t>CRS_Reg_003</t>
+  </si>
+  <si>
+    <t>CRS_Reg_004</t>
+  </si>
+  <si>
+    <t>CRS_Reg_005</t>
+  </si>
+  <si>
+    <t>CRS_Reg_006</t>
+  </si>
+  <si>
+    <t>CRS_Reg_007</t>
+  </si>
+  <si>
+    <t>CRS_Reg_008</t>
+  </si>
+  <si>
+    <t>CRS_Reg_009</t>
+  </si>
+  <si>
+    <t>CRS_Reg_010</t>
+  </si>
+  <si>
+    <t>CRS_Reg_011</t>
+  </si>
+  <si>
+    <t>CRS_Reg_012</t>
+  </si>
+  <si>
+    <t>SRS_Reg_001</t>
+  </si>
+  <si>
+    <t>SRS_Reg_002</t>
+  </si>
+  <si>
+    <t>SRS_Reg_003</t>
+  </si>
+  <si>
+    <t>SRS_Reg_004</t>
+  </si>
+  <si>
+    <t>SRS_Reg_005</t>
+  </si>
+  <si>
+    <t>SRS_Reg_006</t>
+  </si>
+  <si>
+    <t>SRS_Reg_007</t>
+  </si>
+  <si>
+    <t>SRS_Reg_008</t>
+  </si>
+  <si>
+    <t>SRS_Reg_009</t>
+  </si>
+  <si>
+    <t>SRS_Reg_010</t>
+  </si>
+  <si>
+    <t>SRS_Reg_011</t>
+  </si>
+  <si>
+    <t>SRS_Reg_012</t>
+  </si>
+  <si>
+    <t>SRS_Reg_013</t>
+  </si>
+  <si>
+    <t>SRS_Reg_014</t>
+  </si>
+  <si>
+    <t>SRS_Reg_015</t>
+  </si>
+  <si>
+    <t>SRS_Reg_016</t>
+  </si>
+  <si>
+    <t>SRS_Reg_017</t>
+  </si>
+  <si>
+    <t>SRS_Reg_018</t>
+  </si>
+  <si>
+    <t>SRS_Reg_019</t>
+  </si>
+  <si>
+    <t>SRS_Reg_020</t>
+  </si>
+  <si>
+    <t>SRS_Reg_021</t>
+  </si>
+  <si>
+    <t>SRS_Reg_022</t>
+  </si>
+  <si>
+    <t>SRS_Reg_023</t>
+  </si>
+  <si>
+    <t>SRS_Reg_024</t>
+  </si>
+  <si>
+    <t>SRS_Reg_025</t>
+  </si>
+  <si>
+    <t>The username shall contain only alphabetic characters (a-z, A-Z).</t>
+  </si>
+  <si>
+    <t>The username shall not contain spaces.</t>
+  </si>
+  <si>
+    <t>The username shall be unique; no other user shall have the same username.</t>
+  </si>
+  <si>
+    <t>If the username does not meet requirements Req_001,Reg_002,Reg_003, Reg_004 an error message "please enter valid data" shall be displayed.</t>
+  </si>
+  <si>
+    <t>The email address shall adhere to a standard email format (e.g., [test12@gmail.com]).</t>
+  </si>
+  <si>
+    <t>The system shall allow multiple accounts to be registered with the same email.</t>
+  </si>
+  <si>
+    <t>The password shall be at least 8 characters long.</t>
+  </si>
+  <si>
+    <t>The password shall be hidden while typing.</t>
+  </si>
+  <si>
+    <t>If the email does not meet requirements Req_008,Reg_009,Reg_010 an error message "please enter valid data" shall be displayed.</t>
+  </si>
+  <si>
+    <t>If the password does not meet requirements Req_014,Reg_015,Reg_016,Reg_017 an error message "please enter valid data" shall be displayed.</t>
+  </si>
+  <si>
+    <t>The confirm password shall match the password entered in Reg_014.</t>
+  </si>
+  <si>
+    <t>If the confirm password does not match the password, an error message "please enter valid data" shall be displayed.</t>
+  </si>
+  <si>
+    <t>The address shall contain letters and numbers.</t>
+  </si>
+  <si>
+    <t>The address shall not exceed 40 characters.</t>
+  </si>
+  <si>
+    <t>If the address does not meet requirements Req_026,Reg_027,Reg_028 an error message "please enter valid data" shall be displayed.</t>
+  </si>
+  <si>
+    <t>The phone number shall contain only numbers.</t>
+  </si>
+  <si>
+    <t>The phone number shall start with "+20".</t>
+  </si>
+  <si>
+    <t>The system shall allow multiple accounts to be registered with the same phone number.</t>
+  </si>
+  <si>
+    <t>If the phone number does not meet requirements Req_032,Reg_033,Reg_034,Reg_035 an error message "please enter valid data" shall be displayed.</t>
+  </si>
+  <si>
+    <t>The National ID shall contain only numbers.</t>
+  </si>
+  <si>
+    <t>The National ID shall be exactly 14 digits long.</t>
+  </si>
+  <si>
+    <t>If the  does not meet requirements Req_032,Reg_033,Reg_034,Reg_035 an error message "please enter valid data" shall be displayed.</t>
+  </si>
+  <si>
+    <t>Upon successful registration, the user shall be redirected to the Home Page.</t>
+  </si>
+  <si>
+    <t>If the username, password, email, address, national id, and phone number are valid, the user shall be successfully registered.</t>
+  </si>
+  <si>
+    <t>The user shall be able to enter a username, email address, password, confirm password, address, phone number and National ID.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -60,6 +246,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -75,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -111,17 +307,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,20 +552,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="117.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="141.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -364,1252 +576,1303 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
     </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
-      <c r="C231" s="3"/>
-    </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
-      <c r="C232" s="3"/>
-    </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
-      <c r="C233" s="3"/>
-    </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
-      <c r="C234" s="3"/>
-    </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-    </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
-      <c r="C236" s="3"/>
-    </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-    </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
-    </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-    </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
-      <c r="C240" s="3"/>
-    </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
-      <c r="C241" s="3"/>
-    </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-    </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
-      <c r="C243" s="3"/>
-    </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-    </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-    </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-    </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-    </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
-      <c r="C248" s="3"/>
-    </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
-      <c r="C249" s="3"/>
-    </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5AA598-C23B-44D4-852C-33A7030198B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8682A-4E65-45DC-8F79-49265F454B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -215,30 +215,57 @@
   </si>
   <si>
     <t>The user shall be able to enter a username, email address, password, confirm password, address, phone number and National ID.</t>
+  </si>
+  <si>
+    <t>CRS_Login_001</t>
+  </si>
+  <si>
+    <t>CRS_Login_003</t>
+  </si>
+  <si>
+    <t>The system shall check if the entered username and password match a valid user account</t>
+  </si>
+  <si>
+    <t>If either the username or password is invalid, an error message "Please enter valid username or password" shall be displayed</t>
+  </si>
+  <si>
+    <t>SRS_Login_001</t>
+  </si>
+  <si>
+    <t>SRS_Login_002</t>
+  </si>
+  <si>
+    <t>SRS_Login_003</t>
+  </si>
+  <si>
+    <t>SRS_Login_004</t>
+  </si>
+  <si>
+    <t>SRS_Login_005</t>
+  </si>
+  <si>
+    <t>SRS_Login_006</t>
+  </si>
+  <si>
+    <t>SRS_Login_007</t>
+  </si>
+  <si>
+    <t>The user (Client &amp; Supplier) shall be able to enter a username and password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If the username and password are valid, the user (Client &amp; Supplier) shall be logged in successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -247,14 +274,42 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -326,14 +381,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,8 +612,8 @@
   </sheetPr>
   <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -565,1314 +623,1356 @@
     <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
     </row>
     <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
     </row>
     <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
     </row>
     <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
     </row>
     <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
     </row>
     <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
-      <c r="C159" s="3"/>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-      <c r="C161" s="3"/>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-      <c r="C162" s="3"/>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
     </row>
     <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="3"/>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
     </row>
     <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
     </row>
     <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
     </row>
     <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
     </row>
     <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
-      <c r="C169" s="3"/>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
     </row>
     <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="3"/>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
-      <c r="C171" s="3"/>
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
-      <c r="C172" s="3"/>
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
     </row>
     <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
     </row>
     <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="3"/>
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
-      <c r="C176" s="3"/>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
     </row>
     <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
     </row>
     <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="3"/>
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
     </row>
     <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
     </row>
     <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
-      <c r="C180" s="3"/>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
     </row>
     <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
-      <c r="C181" s="3"/>
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
     </row>
     <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
     </row>
     <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
     </row>
     <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
-      <c r="C184" s="3"/>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
     </row>
     <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
     </row>
     <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
-      <c r="C186" s="3"/>
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
     </row>
     <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
     </row>
     <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
-      <c r="C188" s="3"/>
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
     </row>
     <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
-      <c r="C189" s="3"/>
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
     </row>
     <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
-      <c r="C190" s="3"/>
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
     </row>
     <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="3"/>
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
     </row>
     <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="3"/>
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
     </row>
     <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
     </row>
     <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
     </row>
     <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
-      <c r="C196" s="3"/>
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
     </row>
     <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
     </row>
     <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
     </row>
     <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
-      <c r="C200" s="3"/>
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="3"/>
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
     </row>
     <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
     </row>
     <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
     </row>
     <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
     </row>
     <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
     </row>
     <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
-      <c r="C206" s="3"/>
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
     </row>
     <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
     </row>
     <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
-      <c r="C208" s="3"/>
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
     </row>
     <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
     </row>
     <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
     </row>
     <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
     </row>
     <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
     </row>
     <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
     </row>
     <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
     </row>
     <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
     </row>
     <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
-      <c r="C224" s="3"/>
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
     </row>
     <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
     </row>
     <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
     </row>
     <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
     </row>
     <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
-      <c r="C228" s="3"/>
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
     </row>
     <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="3"/>
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
     </row>
     <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
-      <c r="C230" s="3"/>
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8682A-4E65-45DC-8F79-49265F454B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032AE1E3-B110-4FF8-BB20-38F77404CAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve"> If the username and password are valid, the user (Client &amp; Supplier) shall be logged in successfully</t>
+  </si>
+  <si>
+    <t>SRS_Login_008</t>
   </si>
 </sst>
 </file>
@@ -610,10 +613,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -958,7 +961,7 @@
         <v>73</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>65</v>
@@ -969,7 +972,7 @@
         <v>74</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>65</v>
@@ -980,16 +983,22 @@
         <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -1970,6 +1979,11 @@
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032AE1E3-B110-4FF8-BB20-38F77404CAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6320BE-5372-408A-BBAA-F8628C63806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -124,36 +124,12 @@
     <t>SRS_Reg_019</t>
   </si>
   <si>
-    <t>SRS_Reg_020</t>
-  </si>
-  <si>
-    <t>SRS_Reg_021</t>
-  </si>
-  <si>
-    <t>SRS_Reg_022</t>
-  </si>
-  <si>
-    <t>SRS_Reg_023</t>
-  </si>
-  <si>
-    <t>SRS_Reg_024</t>
-  </si>
-  <si>
-    <t>SRS_Reg_025</t>
-  </si>
-  <si>
     <t>The username shall contain only alphabetic characters (a-z, A-Z).</t>
   </si>
   <si>
     <t>The username shall not contain spaces.</t>
   </si>
   <si>
-    <t>The username shall be unique; no other user shall have the same username.</t>
-  </si>
-  <si>
-    <t>If the username does not meet requirements Req_001,Reg_002,Reg_003, Reg_004 an error message "please enter valid data" shall be displayed.</t>
-  </si>
-  <si>
     <t>The email address shall adhere to a standard email format (e.g., [test12@gmail.com]).</t>
   </si>
   <si>
@@ -166,27 +142,15 @@
     <t>The password shall be hidden while typing.</t>
   </si>
   <si>
-    <t>If the email does not meet requirements Req_008,Reg_009,Reg_010 an error message "please enter valid data" shall be displayed.</t>
-  </si>
-  <si>
-    <t>If the password does not meet requirements Req_014,Reg_015,Reg_016,Reg_017 an error message "please enter valid data" shall be displayed.</t>
-  </si>
-  <si>
     <t>The confirm password shall match the password entered in Reg_014.</t>
   </si>
   <si>
-    <t>If the confirm password does not match the password, an error message "please enter valid data" shall be displayed.</t>
-  </si>
-  <si>
     <t>The address shall contain letters and numbers.</t>
   </si>
   <si>
     <t>The address shall not exceed 40 characters.</t>
   </si>
   <si>
-    <t>If the address does not meet requirements Req_026,Reg_027,Reg_028 an error message "please enter valid data" shall be displayed.</t>
-  </si>
-  <si>
     <t>The phone number shall contain only numbers.</t>
   </si>
   <si>
@@ -196,18 +160,12 @@
     <t>The system shall allow multiple accounts to be registered with the same phone number.</t>
   </si>
   <si>
-    <t>If the phone number does not meet requirements Req_032,Reg_033,Reg_034,Reg_035 an error message "please enter valid data" shall be displayed.</t>
-  </si>
-  <si>
     <t>The National ID shall contain only numbers.</t>
   </si>
   <si>
     <t>The National ID shall be exactly 14 digits long.</t>
   </si>
   <si>
-    <t>If the  does not meet requirements Req_032,Reg_033,Reg_034,Reg_035 an error message "please enter valid data" shall be displayed.</t>
-  </si>
-  <si>
     <t>Upon successful registration, the user shall be redirected to the Home Page.</t>
   </si>
   <si>
@@ -223,9 +181,6 @@
     <t>CRS_Login_003</t>
   </si>
   <si>
-    <t>The system shall check if the entered username and password match a valid user account</t>
-  </si>
-  <si>
     <t>If either the username or password is invalid, an error message "Please enter valid username or password" shall be displayed</t>
   </si>
   <si>
@@ -244,19 +199,22 @@
     <t>SRS_Login_005</t>
   </si>
   <si>
-    <t>SRS_Login_006</t>
-  </si>
-  <si>
-    <t>SRS_Login_007</t>
-  </si>
-  <si>
     <t>The user (Client &amp; Supplier) shall be able to enter a username and password.</t>
   </si>
   <si>
-    <t xml:space="preserve"> If the username and password are valid, the user (Client &amp; Supplier) shall be logged in successfully</t>
-  </si>
-  <si>
-    <t>SRS_Login_008</t>
+    <t>The username shall be unique not exit in database; no other user shall have the same username.</t>
+  </si>
+  <si>
+    <t>If all fields do not meet requirements above an error message "please enter valid data" shall be displayed.</t>
+  </si>
+  <si>
+    <t>The username shall be exit in database.</t>
+  </si>
+  <si>
+    <t>The password shall be associated to the username entered.</t>
+  </si>
+  <si>
+    <t>If the username and password are valid, the user (Client &amp; Supplier) shall be logged in successfully and go to HOME Page</t>
   </si>
 </sst>
 </file>
@@ -613,16 +571,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="141.21875" customWidth="1"/>
+    <col min="2" max="2" width="154.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -642,7 +600,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -653,7 +611,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
@@ -664,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
@@ -675,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
@@ -686,10 +644,10 @@
         <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -697,10 +655,10 @@
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -708,10 +666,10 @@
         <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
@@ -719,43 +677,43 @@
         <v>22</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -763,10 +721,10 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -774,10 +732,10 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -785,10 +743,10 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -796,10 +754,10 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -807,10 +765,10 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -818,10 +776,10 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -829,10 +787,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -840,165 +798,111 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -1939,51 +1843,6 @@
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-    </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-    </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-    </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-    </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITI material\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55666A81-B6CE-4E6E-BEFA-524CB554046A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11AB0C0-6132-462A-B5CA-CE2781B9ADAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -29,13 +42,106 @@
   </si>
   <si>
     <t>Link ID</t>
+  </si>
+  <si>
+    <t>SRS_Client_001</t>
+  </si>
+  <si>
+    <t>SRS_Client_002</t>
+  </si>
+  <si>
+    <t>SRS_Client_003</t>
+  </si>
+  <si>
+    <t>SRS_Client_004</t>
+  </si>
+  <si>
+    <t>SRS_Client_005</t>
+  </si>
+  <si>
+    <t>SRS_Client_006</t>
+  </si>
+  <si>
+    <t>SRS_Client_007</t>
+  </si>
+  <si>
+    <t>SRS_Client_008</t>
+  </si>
+  <si>
+    <t>SRS_Client_009</t>
+  </si>
+  <si>
+    <t>SRS_Client_010</t>
+  </si>
+  <si>
+    <t>SRS_Client_011</t>
+  </si>
+  <si>
+    <t>SRS_Client_012</t>
+  </si>
+  <si>
+    <t>The client shall be able to view a complete history of their previous purchases.</t>
+  </si>
+  <si>
+    <t>After placing an order, a confirmation message "Your order is placed successfully" should appear, and the client should be redirected to the history of buys</t>
+  </si>
+  <si>
+    <t>CRS_client_001</t>
+  </si>
+  <si>
+    <t>CRS_client_005</t>
+  </si>
+  <si>
+    <t>CRS_client_006</t>
+  </si>
+  <si>
+    <t>CRS_client_007</t>
+  </si>
+  <si>
+    <t>CRS_client_008</t>
+  </si>
+  <si>
+    <t>CRS_client_009</t>
+  </si>
+  <si>
+    <t>If no purchase history is available for the client, a message "No previous purchases found." should be displayed.</t>
+  </si>
+  <si>
+    <t>If the cart is empty, a message "Your cart is empty." shall be displayed.</t>
+  </si>
+  <si>
+    <t>Client ID is derived from the last 6 digits of the national ID</t>
+  </si>
+  <si>
+    <t>If doesn’t met requirment SRS_Client_012, an error message "Invalid National ID. Please enter a valid ID." should be displayed.</t>
+  </si>
+  <si>
+    <t>CRS-Client-001</t>
+  </si>
+  <si>
+    <t>The client shall be able to select and add one or more products to a shopping cart.</t>
+  </si>
+  <si>
+    <t>The purchase history shall include product details, order date, items purchased, prices, shipping address, and order status</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if the product count=0 you remove product from cart  and error message appear " count no cant be negative no "</t>
+  </si>
+  <si>
+    <t>The client shall be able to navigate to the checkout page to review the final list of items and  the payment method always  (Cash Only) before confirming the purchase</t>
+  </si>
+  <si>
+    <t>The client shall be able to view  the contents of their cart. This includes product names, quantities, prices, and the ability to increment, decrement product count, or remove items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The client has ability to place an order and complete the checkout process.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -57,6 +163,17 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -115,13 +232,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,20 +458,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="117.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="184.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -364,1252 +482,1297 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-    </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-    </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-    </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-    </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-    </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-    </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
     </row>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
     </row>
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6320BE-5372-408A-BBAA-F8628C63806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B0609-ACF7-45BA-AF8A-FDCF572A2777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>ID</t>
   </si>
@@ -215,6 +215,81 @@
   </si>
   <si>
     <t>If the username and password are valid, the user (Client &amp; Supplier) shall be logged in successfully and go to HOME Page</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_001</t>
+  </si>
+  <si>
+    <t>CRS_Supplier_001</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_002</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_003</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_004</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_005</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_006</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_007</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_008</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_009</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_010</t>
+  </si>
+  <si>
+    <t>CRS_Supplier_002</t>
+  </si>
+  <si>
+    <t>CRS_Supplier_003</t>
+  </si>
+  <si>
+    <t>CRS_Supplier_004</t>
+  </si>
+  <si>
+    <t>CRS_Supplier_006</t>
+  </si>
+  <si>
+    <t>Product ID : should following This Naming Conventional : [Brand/Category]_[ProductName]_[Size/Version]</t>
+  </si>
+  <si>
+    <t>Product Photo : should not exceed 300KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Price : should be Numeric Only and do not contain special </t>
+  </si>
+  <si>
+    <t>Product Price : should not contain special character like ($)</t>
+  </si>
+  <si>
+    <t>Product Platform : should choose IOS or Android</t>
+  </si>
+  <si>
+    <t>Product version : should be following this format [Major.Minor.Patch] like XXX.XXX.XXX</t>
+  </si>
+  <si>
+    <t>Supplier can ADD product with data (product id,product photo, product price, product version, product platform )</t>
+  </si>
+  <si>
+    <t>Supplier can UPDATE product by changing any of product data (product id,product photo, product price, product version, product platform) using Product ID</t>
+  </si>
+  <si>
+    <t>Supplier can DELETE product with Product ID</t>
+  </si>
+  <si>
+    <t>There is an Error message If the supplier enter Incorrect or Missing data "Invalid Data"</t>
   </si>
 </sst>
 </file>
@@ -573,18 +648,18 @@
   </sheetPr>
   <dimension ref="A1:C222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="95" workbookViewId="0">
+      <selection activeCell="C150" sqref="C150:C159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="154.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="154.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -595,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -606,7 +681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -617,7 +692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -628,7 +703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -639,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -650,7 +725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -661,7 +736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -672,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -683,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -694,7 +769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -705,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -716,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -727,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -738,7 +813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -749,7 +824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -760,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -771,7 +846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -782,7 +857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -793,7 +868,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -804,7 +879,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -815,7 +890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
@@ -826,7 +901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -837,7 +912,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
@@ -848,7 +923,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -859,987 +934,1047 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02B0609-ACF7-45BA-AF8A-FDCF572A2777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002C2A31-0943-424B-AE92-A9C0FE6DB37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -290,13 +290,118 @@
   </si>
   <si>
     <t>There is an Error message If the supplier enter Incorrect or Missing data "Invalid Data"</t>
+  </si>
+  <si>
+    <t>SRS_Client_001</t>
+  </si>
+  <si>
+    <t>The client shall be able to view a complete history of their previous purchases.</t>
+  </si>
+  <si>
+    <t>CRS-Client-001</t>
+  </si>
+  <si>
+    <t>SRS_Client_002</t>
+  </si>
+  <si>
+    <t>If no purchase history is available for the client, a message "No previous purchases found." should be displayed.</t>
+  </si>
+  <si>
+    <t>SRS_Client_003</t>
+  </si>
+  <si>
+    <t>The purchase history shall include product details, order date, items purchased, prices, shipping address, and order status</t>
+  </si>
+  <si>
+    <t>CRS_client_001</t>
+  </si>
+  <si>
+    <t>SRS_Client_004</t>
+  </si>
+  <si>
+    <t>The client shall be able to select and add one or more products to a shopping cart.</t>
+  </si>
+  <si>
+    <t>CRS_client_005</t>
+  </si>
+  <si>
+    <t>SRS_Client_005</t>
+  </si>
+  <si>
+    <t>The client shall be able to view  the contents of their cart. This includes product names, quantities, prices, and the ability to increment, decrement product count, or remove items.</t>
+  </si>
+  <si>
+    <t>CRS_client_006</t>
+  </si>
+  <si>
+    <t>SRS_Client_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if the product count=0 you remove product from cart  and error message appear " count no cant be negative no "</t>
+  </si>
+  <si>
+    <t>SRS_Client_007</t>
+  </si>
+  <si>
+    <t>If the cart is empty, a message "Your cart is empty." shall be displayed.</t>
+  </si>
+  <si>
+    <t>SRS_Client_008</t>
+  </si>
+  <si>
+    <t>The client shall be able to navigate to the checkout page to review the final list of items and  the payment method always  (Cash Only) before confirming the purchase</t>
+  </si>
+  <si>
+    <t>CRS_client_007</t>
+  </si>
+  <si>
+    <t>SRS_Client_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The client has ability to place an order and complete the checkout process.</t>
+  </si>
+  <si>
+    <t>CRS_client_008</t>
+  </si>
+  <si>
+    <t>SRS_Client_010</t>
+  </si>
+  <si>
+    <t>After placing an order, a confirmation message "Your order is placed successfully" should appear, and the client should be redirected to the history of buys</t>
+  </si>
+  <si>
+    <t>SRS_Client_011</t>
+  </si>
+  <si>
+    <t>Client ID is derived from the last 6 digits of the national ID</t>
+  </si>
+  <si>
+    <t>SRS_Client_012</t>
+  </si>
+  <si>
+    <t>CRS_client_002</t>
+  </si>
+  <si>
+    <t>CRS_client_003</t>
+  </si>
+  <si>
+    <t>CRS_client_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Client could cancel checkout process and redirected back to cart </t>
+  </si>
+  <si>
+    <t>SRS_Client_013</t>
+  </si>
+  <si>
+    <t>if the produc becomes out of stock an message appears behind the produc "out of stock"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -343,6 +448,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -417,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -428,6 +539,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,20 +758,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C222"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C150" sqref="C150:C159"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.90625" customWidth="1"/>
-    <col min="2" max="2" width="154.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.90625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="154.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -670,7 +782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
@@ -681,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -692,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -703,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -714,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -725,7 +837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -736,7 +848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -747,7 +859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -758,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -769,7 +881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -780,7 +892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -791,7 +903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -802,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -813,7 +925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -824,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -835,7 +947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -846,7 +958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -857,7 +969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -868,7 +980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -879,7 +991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -890,7 +1002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>55</v>
       </c>
@@ -901,7 +1013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -912,7 +1024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
@@ -923,7 +1035,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>58</v>
       </c>
@@ -934,1050 +1046,573 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-    </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-    </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-    </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-    </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-    </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002C2A31-0943-424B-AE92-A9C0FE6DB37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B6FA9-72E5-4773-BAB2-FA4E7E86C5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
   <si>
     <t>ID</t>
   </si>
@@ -328,9 +328,6 @@
     <t>SRS_Client_005</t>
   </si>
   <si>
-    <t>The client shall be able to view  the contents of their cart. This includes product names, quantities, prices, and the ability to increment, decrement product count, or remove items.</t>
-  </si>
-  <si>
     <t>CRS_client_006</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
     <t>CRS_client_008</t>
   </si>
   <si>
-    <t>SRS_Client_010</t>
-  </si>
-  <si>
     <t>After placing an order, a confirmation message "Your order is placed successfully" should appear, and the client should be redirected to the history of buys</t>
   </si>
   <si>
@@ -394,7 +388,28 @@
     <t>SRS_Client_013</t>
   </si>
   <si>
-    <t>if the produc becomes out of stock an message appears behind the produc "out of stock"</t>
+    <t>SRS_Client_014</t>
+  </si>
+  <si>
+    <t>CRS_Client_003</t>
+  </si>
+  <si>
+    <t>When the client tries to select a product that is out of stock an message should appear "product is out of stock"</t>
+  </si>
+  <si>
+    <t>if the product becomes out of stock an message appears the product "out of stock"</t>
+  </si>
+  <si>
+    <t>The client shall be able to view  the contents of their cart. This includes product names, quantities, prices.</t>
+  </si>
+  <si>
+    <t>the client should be able to increment, decrement product count, or remove items.</t>
+  </si>
+  <si>
+    <t>SRS_Client_0010</t>
+  </si>
+  <si>
+    <t>SRS_Client_015</t>
   </si>
 </sst>
 </file>
@@ -758,10 +773,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1084,10 +1099,10 @@
         <v>98</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1098,125 +1113,125 @@
         <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>66</v>
@@ -1224,21 +1239,21 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>66</v>
@@ -1246,10 +1261,10 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>66</v>
@@ -1257,10 +1272,10 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>66</v>
@@ -1268,46 +1283,58 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -1613,6 +1640,16 @@
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425B6FA9-72E5-4773-BAB2-FA4E7E86C5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1CA7C-E0D1-47E9-9BDA-B04248BA3B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
   <si>
     <t>ID</t>
   </si>
@@ -169,15 +169,9 @@
     <t>Upon successful registration, the user shall be redirected to the Home Page.</t>
   </si>
   <si>
-    <t>If the username, password, email, address, national id, and phone number are valid, the user shall be successfully registered.</t>
-  </si>
-  <si>
     <t>The user shall be able to enter a username, email address, password, confirm password, address, phone number and National ID.</t>
   </si>
   <si>
-    <t>CRS_Login_001</t>
-  </si>
-  <si>
     <t>CRS_Login_003</t>
   </si>
   <si>
@@ -410,6 +404,19 @@
   </si>
   <si>
     <t>SRS_Client_015</t>
+  </si>
+  <si>
+    <t>CRS_Login_001
+CRS_Login_002</t>
+  </si>
+  <si>
+    <t>SRS_Login_006</t>
+  </si>
+  <si>
+    <t>If either the username or password is empty, an error message "username or password is requierd" shall be displayed</t>
+  </si>
+  <si>
+    <t>If the username, password, email, address, national id, and phone number are valid according to ID's(ID's SRS_Reg_002,SRS_Reg_005 , SRS_Reg_007,SRS_Reg_010,SRS_Reg_011,SRS_Reg_012,SRS_Reg_013,SRS_Reg_015,SRS_Reg_016), the user shall be successfully registered.</t>
   </si>
 </sst>
 </file>
@@ -488,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -539,11 +546,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -555,6 +575,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,10 +799,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -802,14 +828,14 @@
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -820,10 +846,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -831,11 +857,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
@@ -978,18 +1004,18 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>49</v>
+      <c r="B19" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1006,340 +1032,346 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
+      <c r="C24" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
@@ -1650,6 +1682,11 @@
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\QA\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A1CA7C-E0D1-47E9-9BDA-B04248BA3B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220EF15-5BD8-4A78-B595-361BFACCF6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -121,9 +121,6 @@
     <t>SRS_Reg_018</t>
   </si>
   <si>
-    <t>SRS_Reg_019</t>
-  </si>
-  <si>
     <t>The username shall contain only alphabetic characters (a-z, A-Z).</t>
   </si>
   <si>
@@ -139,12 +136,6 @@
     <t>The password shall be at least 8 characters long.</t>
   </si>
   <si>
-    <t>The password shall be hidden while typing.</t>
-  </si>
-  <si>
-    <t>The confirm password shall match the password entered in Reg_014.</t>
-  </si>
-  <si>
     <t>The address shall contain letters and numbers.</t>
   </si>
   <si>
@@ -298,18 +289,9 @@
     <t>SRS_Client_002</t>
   </si>
   <si>
-    <t>If no purchase history is available for the client, a message "No previous purchases found." should be displayed.</t>
-  </si>
-  <si>
     <t>SRS_Client_003</t>
   </si>
   <si>
-    <t>The purchase history shall include product details, order date, items purchased, prices, shipping address, and order status</t>
-  </si>
-  <si>
-    <t>CRS_client_001</t>
-  </si>
-  <si>
     <t>SRS_Client_004</t>
   </si>
   <si>
@@ -328,9 +310,6 @@
     <t>SRS_Client_006</t>
   </si>
   <si>
-    <t xml:space="preserve"> if the product count=0 you remove product from cart  and error message appear " count no cant be negative no "</t>
-  </si>
-  <si>
     <t>SRS_Client_007</t>
   </si>
   <si>
@@ -376,31 +355,10 @@
     <t>CRS_client_004</t>
   </si>
   <si>
-    <t xml:space="preserve">The Client could cancel checkout process and redirected back to cart </t>
-  </si>
-  <si>
     <t>SRS_Client_013</t>
   </si>
   <si>
     <t>SRS_Client_014</t>
-  </si>
-  <si>
-    <t>CRS_Client_003</t>
-  </si>
-  <si>
-    <t>When the client tries to select a product that is out of stock an message should appear "product is out of stock"</t>
-  </si>
-  <si>
-    <t>if the product becomes out of stock an message appears the product "out of stock"</t>
-  </si>
-  <si>
-    <t>The client shall be able to view  the contents of their cart. This includes product names, quantities, prices.</t>
-  </si>
-  <si>
-    <t>the client should be able to increment, decrement product count, or remove items.</t>
-  </si>
-  <si>
-    <t>SRS_Client_0010</t>
   </si>
   <si>
     <t>SRS_Client_015</t>
@@ -416,7 +374,73 @@
     <t>If either the username or password is empty, an error message "username or password is requierd" shall be displayed</t>
   </si>
   <si>
-    <t>If the username, password, email, address, national id, and phone number are valid according to ID's(ID's SRS_Reg_002,SRS_Reg_005 , SRS_Reg_007,SRS_Reg_010,SRS_Reg_011,SRS_Reg_012,SRS_Reg_013,SRS_Reg_015,SRS_Reg_016), the user shall be successfully registered.</t>
+    <t>The confirm password shall match the password entered in Reg_07.</t>
+  </si>
+  <si>
+    <t>If the username, password, email, address, national id, and phone number are valid according to the requirements above from (SRS_Reg_002 to SRS_Reg_016), the user shall be successfully registered.</t>
+  </si>
+  <si>
+    <t>CRS_Client_004</t>
+  </si>
+  <si>
+    <t>CRS_Client_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client shall be able to view  the contents of their cart. </t>
+  </si>
+  <si>
+    <t>The system shall display the name of each product in the shopping cart.</t>
+  </si>
+  <si>
+    <t>The system shall display the quantity of each product in the shopping cart.</t>
+  </si>
+  <si>
+    <t>The system shall display the unit price of each product in the shopping cart.</t>
+  </si>
+  <si>
+    <t>The system shall allow the client to increment the quantity of a product in the shopping cart.</t>
+  </si>
+  <si>
+    <t>The system shall allow the client to decrement the quantity of a product in the shopping cart.</t>
+  </si>
+  <si>
+    <t>The system shall allow the client to remove a product from the shopping cart.</t>
+  </si>
+  <si>
+    <t>For each order, the system shall display the status of the order.</t>
+  </si>
+  <si>
+    <t>For each order, the system shall display the shipping address.</t>
+  </si>
+  <si>
+    <t>For each item in an order, the system shall display the unit price at the time of purchase.</t>
+  </si>
+  <si>
+    <t>For each order, the system shall display the list of items purchased.</t>
+  </si>
+  <si>
+    <t>For each order, the system shall display the order date.</t>
+  </si>
+  <si>
+    <t>For each item in an order, the system shall display the product details</t>
+  </si>
+  <si>
+    <t>SRS_Client_010</t>
+  </si>
+  <si>
+    <t>SRS_Client_016</t>
+  </si>
+  <si>
+    <t>SRS_Client_017</t>
+  </si>
+  <si>
+    <t>SRS_Client_018</t>
+  </si>
+  <si>
+    <t>SRS_Client_019</t>
+  </si>
+  <si>
+    <t>SRS_Client_020</t>
   </si>
 </sst>
 </file>
@@ -495,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -546,24 +570,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -579,8 +590,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,20 +808,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="154.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="154.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -823,870 +832,914 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
+      <c r="B18" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>131</v>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>33</v>
+    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>79</v>
+        <v>138</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220EF15-5BD8-4A78-B595-361BFACCF6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F831170C-1509-4AB1-8680-A0876DAC404A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -247,25 +247,13 @@
     <t>CRS_Supplier_006</t>
   </si>
   <si>
-    <t>Product ID : should following This Naming Conventional : [Brand/Category]_[ProductName]_[Size/Version]</t>
-  </si>
-  <si>
     <t>Product Photo : should not exceed 300KB</t>
   </si>
   <si>
-    <t xml:space="preserve">Product Price : should be Numeric Only and do not contain special </t>
-  </si>
-  <si>
     <t>Product Price : should not contain special character like ($)</t>
   </si>
   <si>
-    <t>Product Platform : should choose IOS or Android</t>
-  </si>
-  <si>
     <t>Product version : should be following this format [Major.Minor.Patch] like XXX.XXX.XXX</t>
-  </si>
-  <si>
-    <t>Supplier can ADD product with data (product id,product photo, product price, product version, product platform )</t>
   </si>
   <si>
     <t>Supplier can UPDATE product by changing any of product data (product id,product photo, product price, product version, product platform) using Product ID</t>
@@ -441,6 +429,45 @@
   </si>
   <si>
     <t>SRS_Client_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Price : should be Numeric Only and do not contain characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Platform : should choose IOS or Android only </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier can ADD product with data (product id,product photo, product price, product version, product platform ) all fields are required </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the first filed that has an error will be highlighted by red color and exclamation mark appears in the right of the field </t>
+  </si>
+  <si>
+    <t>SRS_Supplier_011</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_012</t>
+  </si>
+  <si>
+    <t>The product id should be unique, there are not two products with the same product id</t>
+  </si>
+  <si>
+    <t>SRS_Supplier_013</t>
+  </si>
+  <si>
+    <t>CRS_Supplier_007</t>
+  </si>
+  <si>
+    <t>CRS_Supplier_008</t>
+  </si>
+  <si>
+    <t>CRS_Supplier_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The error message, in red color, appears in the top of the form of add product and update product </t>
+  </si>
+  <si>
+    <t>Product ID : should following This Naming Conventional : [Brand/Category]_[ProductName]_[Size/Version], Brand &amp; ProductName should start with capital letters</t>
   </si>
 </sst>
 </file>
@@ -810,8 +837,8 @@
   </sheetPr>
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -914,7 +941,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1013,7 +1040,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1038,7 +1065,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
@@ -1049,7 +1076,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
@@ -1060,7 +1087,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
@@ -1071,7 +1098,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1087,233 +1114,233 @@
     </row>
     <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1321,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>61</v>
@@ -1332,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>73</v>
@@ -1343,7 +1370,7 @@
         <v>63</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>61</v>
@@ -1354,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>61</v>
@@ -1365,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>61</v>
@@ -1376,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>61</v>
@@ -1387,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>61</v>
@@ -1398,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>71</v>
@@ -1409,7 +1436,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>72</v>
@@ -1420,26 +1447,44 @@
         <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F831170C-1509-4AB1-8680-A0876DAC404A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8326D57-C01C-4879-9EC8-5A4486E8DA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,15 +253,6 @@
     <t>Product Price : should not contain special character like ($)</t>
   </si>
   <si>
-    <t>Product version : should be following this format [Major.Minor.Patch] like XXX.XXX.XXX</t>
-  </si>
-  <si>
-    <t>Supplier can UPDATE product by changing any of product data (product id,product photo, product price, product version, product platform) using Product ID</t>
-  </si>
-  <si>
-    <t>Supplier can DELETE product with Product ID</t>
-  </si>
-  <si>
     <t>There is an Error message If the supplier enter Incorrect or Missing data "Invalid Data"</t>
   </si>
   <si>
@@ -437,9 +428,6 @@
     <t xml:space="preserve">Product Platform : should choose IOS or Android only </t>
   </si>
   <si>
-    <t xml:space="preserve">Supplier can ADD product with data (product id,product photo, product price, product version, product platform ) all fields are required </t>
-  </si>
-  <si>
     <t xml:space="preserve">the first filed that has an error will be highlighted by red color and exclamation mark appears in the right of the field </t>
   </si>
   <si>
@@ -467,7 +455,19 @@
     <t xml:space="preserve">The error message, in red color, appears in the top of the form of add product and update product </t>
   </si>
   <si>
-    <t>Product ID : should following This Naming Conventional : [Brand/Category]_[ProductName]_[Size/Version], Brand &amp; ProductName should start with capital letters</t>
+    <t xml:space="preserve">Product ID : should following This Naming Conventional : [Brand/Category]_[ProductName]_[Size/Version], Brand &amp; ProductName should start with capital letters and consist of only characters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product version : should be following this format [Major.Minor.Patch] like [XXX.XXX.XXX OR XX.XX.XX OR X.X.X] </t>
+  </si>
+  <si>
+    <t>Supplier can UPDATE product by changing any of product data (product id,product photo, product price, product version, product platform) using Product ID, if all fields are correct "Product is updated successfully" message appears in green color in the top of page</t>
+  </si>
+  <si>
+    <t>Supplier can ADD product with data (product id,product photo, product price, product version, product platform ) all fields are required , if all fields are correct a message diplayed "Product is added successfully " in green at the top of page</t>
+  </si>
+  <si>
+    <t>Supplier can DELETE product with Product ID , if the product id is correct "Product is removed successfully" message appears in the top of the page in green color</t>
   </si>
 </sst>
 </file>
@@ -837,14 +837,14 @@
   </sheetPr>
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="154.44140625" customWidth="1"/>
+    <col min="2" max="2" width="182" customWidth="1"/>
     <col min="3" max="3" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -941,7 +941,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
@@ -1040,7 +1040,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
@@ -1065,7 +1065,7 @@
         <v>54</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
@@ -1076,7 +1076,7 @@
         <v>57</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
@@ -1087,7 +1087,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
@@ -1098,7 +1098,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -1114,233 +1114,233 @@
     </row>
     <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1348,7 +1348,7 @@
         <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>61</v>
@@ -1359,7 +1359,7 @@
         <v>62</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>73</v>
@@ -1381,7 +1381,7 @@
         <v>64</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>61</v>
@@ -1403,7 +1403,7 @@
         <v>66</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>61</v>
@@ -1414,7 +1414,7 @@
         <v>67</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>61</v>
@@ -1425,7 +1425,7 @@
         <v>68</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>71</v>
@@ -1436,7 +1436,7 @@
         <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>72</v>
@@ -1447,7 +1447,7 @@
         <v>70</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>74</v>
@@ -1455,35 +1455,35 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ITI9M-Testing\Core\QA\WorkShop\Online-Mobile-Store-WebSite\Requirments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ITI\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8326D57-C01C-4879-9EC8-5A4486E8DA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376AC04D-741B-42ED-9327-EE5D0A8E791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>The address shall contain letters and numbers.</t>
   </si>
   <si>
-    <t>The address shall not exceed 40 characters.</t>
-  </si>
-  <si>
     <t>The phone number shall contain only numbers.</t>
   </si>
   <si>
@@ -154,13 +151,7 @@
     <t>The National ID shall contain only numbers.</t>
   </si>
   <si>
-    <t>The National ID shall be exactly 14 digits long.</t>
-  </si>
-  <si>
     <t>Upon successful registration, the user shall be redirected to the Home Page.</t>
-  </si>
-  <si>
-    <t>The user shall be able to enter a username, email address, password, confirm password, address, phone number and National ID.</t>
   </si>
   <si>
     <t>CRS_Login_003</t>
@@ -468,6 +459,15 @@
   </si>
   <si>
     <t>Supplier can DELETE product with Product ID , if the product id is correct "Product is removed successfully" message appears in the top of the page in green color</t>
+  </si>
+  <si>
+    <t>The address shall not exceed 40 and not less than 5 characters.</t>
+  </si>
+  <si>
+    <t>The National ID shall be exactly 14 digits long and starts with 2 or 3.</t>
+  </si>
+  <si>
+    <t>The user shall be able to enter a username, email address, password, confirm password, address, phone number, National ID and User Type.</t>
   </si>
 </sst>
 </file>
@@ -837,18 +837,18 @@
   </sheetPr>
   <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="182" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -859,18 +859,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -892,18 +892,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -914,7 +914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -925,7 +925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -936,18 +936,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -958,830 +958,830 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>

--- a/Requirments/SRS.xlsx
+++ b/Requirments/SRS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ITI\Online-Mobile-Store-WebSite\Requirments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376AC04D-741B-42ED-9327-EE5D0A8E791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9EE843-2ADC-4B44-962E-0B074A67276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,7 +838,7 @@
   <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
